--- a/Setting/ItemData.xlsx
+++ b/Setting/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63569\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4AE076-3216-41A5-94AE-CA46B92A7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B37D2E-BA6B-4E8F-9AB1-F077964174FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,37 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{A25E4E83-2BE9-4048-9023-2DA4B42A469E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>爆炸伤害</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{0A1D3DE6-523B-4C17-B471-525EC15CDC1E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>爆炸范围</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{A2961EAE-6975-4D00-B064-23BA05B0A3E4}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{A2961EAE-6975-4D00-B064-23BA05B0A3E4}">
       <text>
         <r>
           <rPr>
@@ -582,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{14566CDE-9B57-4AB2-AE78-AFE6B08ACCBF}">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{14566CDE-9B57-4AB2-AE78-AFE6B08ACCBF}">
       <text>
         <r>
           <rPr>
@@ -597,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{64D73AB5-9242-4C1D-8EB0-E2EC65D82F5C}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{64D73AB5-9242-4C1D-8EB0-E2EC65D82F5C}">
       <text>
         <r>
           <rPr>
@@ -612,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{EEA48513-CFAC-4B54-AA49-1D5060EFFA92}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{EEA48513-CFAC-4B54-AA49-1D5060EFFA92}">
       <text>
         <r>
           <rPr>
@@ -627,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{4914F70C-C182-4331-B939-2B9ED485E5DD}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{4914F70C-C182-4331-B939-2B9ED485E5DD}">
       <text>
         <r>
           <rPr>
@@ -642,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{1800F704-FE67-4085-8651-CBE3490F10CB}">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{1800F704-FE67-4085-8651-CBE3490F10CB}">
       <text>
         <r>
           <rPr>
@@ -657,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{110C62E1-9C8A-4D21-9E04-BC98769521A2}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{110C62E1-9C8A-4D21-9E04-BC98769521A2}">
       <text>
         <r>
           <rPr>
@@ -672,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{1ECD0719-E92F-4C11-9EBE-C2B80A808707}">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{1ECD0719-E92F-4C11-9EBE-C2B80A808707}">
       <text>
         <r>
           <rPr>
@@ -687,22 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{378690AD-276A-445E-AC18-458488B99E8F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>固定值百分比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{ED5FAF94-2ADD-4C92-B7C9-24937E6B90D9}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{ED5FAF94-2ADD-4C92-B7C9-24937E6B90D9}">
       <text>
         <r>
           <rPr>
@@ -717,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{A01F9307-3778-4DDE-8B4E-14465A3330AB}">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{A01F9307-3778-4DDE-8B4E-14465A3330AB}">
       <text>
         <r>
           <rPr>
@@ -732,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{2A757118-A52E-4D16-8213-3690864DC281}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{2A757118-A52E-4D16-8213-3690864DC281}">
       <text>
         <r>
           <rPr>
@@ -747,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{B711150E-24AD-41B0-BBB5-80ACD9E3E454}">
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{B711150E-24AD-41B0-BBB5-80ACD9E3E454}">
       <text>
         <r>
           <rPr>
@@ -762,22 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{C4A9147F-BB4E-492B-BC61-3114F7CD4593}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>触发概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{AAEBC05A-A305-4D6F-887E-A698EF0A16DA}">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{AAEBC05A-A305-4D6F-887E-A698EF0A16DA}">
       <text>
         <r>
           <rPr>
@@ -792,7 +732,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{8E64C8F6-FE58-417C-BAB8-4E14A3C57E3D}">
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{D75AB612-8181-4184-B09F-B0CAC0148C91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础生命提升</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{8E64C8F6-FE58-417C-BAB8-4E14A3C57E3D}">
       <text>
         <r>
           <rPr>
@@ -807,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{82E0750D-7AFE-423B-A7A4-31D01BB7E59B}">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{82E0750D-7AFE-423B-A7A4-31D01BB7E59B}">
       <text>
         <r>
           <rPr>
@@ -822,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{B85B7ADC-D23C-4FB2-B60C-6C3FFBC3A7C2}">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{B85B7ADC-D23C-4FB2-B60C-6C3FFBC3A7C2}">
       <text>
         <r>
           <rPr>
@@ -837,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{3DE52ADD-582F-4B2D-91EF-5B752FC11CA9}">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{3DE52ADD-582F-4B2D-91EF-5B752FC11CA9}">
       <text>
         <r>
           <rPr>
@@ -852,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{F52C8324-04C4-4F08-8315-D77DB2968D48}">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{F52C8324-04C4-4F08-8315-D77DB2968D48}">
       <text>
         <r>
           <rPr>
@@ -867,7 +822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{F98735FD-F728-4B5C-B0EA-A45E30C1C1A9}">
+    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{F98735FD-F728-4B5C-B0EA-A45E30C1C1A9}">
       <text>
         <r>
           <rPr>
@@ -882,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{F89F760A-122E-49B4-A237-892EC020B4ED}">
+    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{F89F760A-122E-49B4-A237-892EC020B4ED}">
       <text>
         <r>
           <rPr>
@@ -897,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{FEFAB2EB-6E89-4110-9E4E-D9BB67E97816}">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{FEFAB2EB-6E89-4110-9E4E-D9BB67E97816}">
       <text>
         <r>
           <rPr>
@@ -912,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0" shapeId="0" xr:uid="{95A6D122-FC11-4090-910C-FBEBF9D108DF}">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{95A6D122-FC11-4090-910C-FBEBF9D108DF}">
       <text>
         <r>
           <rPr>
@@ -938,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{3A94984A-B95E-4430-A969-46CA5576691B}">
+    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{3A94984A-B95E-4430-A969-46CA5576691B}">
       <text>
         <r>
           <rPr>
@@ -953,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{B1FEF4C1-EB8D-43B8-AA7C-4489EA738E10}">
+    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{B1FEF4C1-EB8D-43B8-AA7C-4489EA738E10}">
       <text>
         <r>
           <rPr>
@@ -968,52 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{7869065C-7348-4960-8883-CEF4C3606DB1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>造成的伤害百分比，取决于你的攻击百分比。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{9AF65D4E-3761-4ADA-B4DB-DCFB3BE058C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>保护壳抵挡伤害的次数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{B7A6FE5C-5914-4458-AA86-FE0703519DC4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移动速度下降百分比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{45AE5877-F665-41AA-97DB-6FB36091354B}">
+    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{45AE5877-F665-41AA-97DB-6FB36091354B}">
       <text>
         <r>
           <rPr>
@@ -1028,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{E9070FDA-CAF7-402C-B810-2E87542F53E0}">
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{E9070FDA-CAF7-402C-B810-2E87542F53E0}">
       <text>
         <r>
           <rPr>
@@ -1043,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{20C2A645-64BE-4B93-B364-52D4E94898A1}">
+    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{20C2A645-64BE-4B93-B364-52D4E94898A1}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{F70BDA11-742A-45A0-84A7-89BA516882F7}">
+    <comment ref="H41" authorId="0" shapeId="0" xr:uid="{F70BDA11-742A-45A0-84A7-89BA516882F7}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{6B69C6B3-CB12-46F4-852E-8F4238BBA2C0}">
+    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{6B69C6B3-CB12-46F4-852E-8F4238BBA2C0}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{140E4D0F-9C4E-47E7-8721-9AD64D3DA039}">
+    <comment ref="H42" authorId="0" shapeId="0" xr:uid="{140E4D0F-9C4E-47E7-8721-9AD64D3DA039}">
       <text>
         <r>
           <rPr>
@@ -1103,82 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{59853BDA-C06B-48B9-99AA-4CF73112E862}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>护盾量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{F9627F1B-9182-4270-BB98-47B38CE37EAE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>护盾量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{E028AB65-94CE-4514-AACC-9AFB59A7B205}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>转变百分比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{B8B0A1BD-04AD-407C-813F-6E40751AA362}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>造成的伤害，每次判定。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{B2E97D6E-37A5-4931-9184-C3110539E124}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>咏唱时的移动速度。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G55" authorId="0" shapeId="0" xr:uid="{00DF7E54-F7A3-446D-8DC9-78DB31CE8374}">
+    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{00DF7E54-F7A3-446D-8DC9-78DB31CE8374}">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{BB3B41E0-A624-4CBB-BA2F-5E530BF46521}">
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{BB3B41E0-A624-4CBB-BA2F-5E530BF46521}">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G57" authorId="0" shapeId="0" xr:uid="{F7858E4D-73B7-4CFB-9AE0-CED8829F2F5F}">
+    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{F7858E4D-73B7-4CFB-9AE0-CED8829F2F5F}">
       <text>
         <r>
           <rPr>
@@ -1223,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{F86D64C5-DE93-4407-84BC-A63BE9C82111}">
+    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{F86D64C5-DE93-4407-84BC-A63BE9C82111}">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{39957E42-A982-493A-9EE8-24826C31E1BF}">
+    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{39957E42-A982-493A-9EE8-24826C31E1BF}">
       <text>
         <r>
           <rPr>
@@ -1253,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{184702AD-7FC0-4C65-9E4A-406C7B71D3B4}">
+    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{184702AD-7FC0-4C65-9E4A-406C7B71D3B4}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{50ED73F5-B3FE-440A-A2FE-1957238716C6}">
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{50ED73F5-B3FE-440A-A2FE-1957238716C6}">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{BDAB2A6D-2043-4AF2-91D3-E292AB04377D}">
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{BDAB2A6D-2043-4AF2-91D3-E292AB04377D}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="0" shapeId="0" xr:uid="{90191C48-4269-4579-B3D7-264CDF943126}">
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{90191C48-4269-4579-B3D7-264CDF943126}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H59" authorId="0" shapeId="0" xr:uid="{F98B9709-CEE5-4BE9-8356-6BE21BBBDF65}">
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{F98B9709-CEE5-4BE9-8356-6BE21BBBDF65}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{AC86ABD8-B756-4920-8907-CAD6E5879127}">
+    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{AC86ABD8-B756-4920-8907-CAD6E5879127}">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{40E7DA20-E1D2-4F45-9F24-134FDFBE6A13}">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{40E7DA20-E1D2-4F45-9F24-134FDFBE6A13}">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G63" authorId="0" shapeId="0" xr:uid="{F312F9D6-A0C5-4F6F-9A46-BB3B5789E431}">
+    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{F312F9D6-A0C5-4F6F-9A46-BB3B5789E431}">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1208,67 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{4639485C-9886-45A9-BAF5-C677E0F61BD4}">
+    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{0A2C9544-6F60-422F-8B0D-D1BB6A1507B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>精神伤害减免</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{647F5CFF-DEE1-451D-AA72-84E136F90161}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>低于百分比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{A33F10DC-F924-4F29-A8BD-29DA0C45E416}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>正击伤害下降量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H71" authorId="0" shapeId="0" xr:uid="{FEE9FA6F-DC39-4FFC-A257-95698582BD56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>背击伤害提高量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G72" authorId="0" shapeId="0" xr:uid="{4639485C-9886-45A9-BAF5-C677E0F61BD4}">
       <text>
         <r>
           <rPr>
@@ -1388,67 +1283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{A33F10DC-F924-4F29-A8BD-29DA0C45E416}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>正击伤害下降量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{FEE9FA6F-DC39-4FFC-A257-95698582BD56}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>背击伤害提高量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G66" authorId="0" shapeId="0" xr:uid="{0A2C9544-6F60-422F-8B0D-D1BB6A1507B3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>精神伤害减免</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G67" authorId="0" shapeId="0" xr:uid="{647F5CFF-DEE1-451D-AA72-84E136F90161}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>低于百分比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G68" authorId="0" shapeId="0" xr:uid="{2B427743-6D14-4DC5-8FE4-C36931FA878C}">
+    <comment ref="G73" authorId="0" shapeId="0" xr:uid="{2B427743-6D14-4DC5-8FE4-C36931FA878C}">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H68" authorId="0" shapeId="0" xr:uid="{0E4F9FAE-7B55-4C30-AC40-BBF112085BB3}">
+    <comment ref="H73" authorId="0" shapeId="0" xr:uid="{0E4F9FAE-7B55-4C30-AC40-BBF112085BB3}">
       <text>
         <r>
           <rPr>
@@ -1478,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0" xr:uid="{A3BA09F9-CB76-4BC1-A64F-5230273886B8}">
+    <comment ref="G74" authorId="0" shapeId="0" xr:uid="{A3BA09F9-CB76-4BC1-A64F-5230273886B8}">
       <text>
         <r>
           <rPr>
@@ -1493,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H69" authorId="0" shapeId="0" xr:uid="{2FD52585-E9EE-41E8-AA9A-24B06ED8827F}">
+    <comment ref="H74" authorId="0" shapeId="0" xr:uid="{2FD52585-E9EE-41E8-AA9A-24B06ED8827F}">
       <text>
         <r>
           <rPr>
@@ -1508,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0" xr:uid="{D1A15E28-CC51-4DA3-953D-461837E9532B}">
+    <comment ref="G75" authorId="0" shapeId="0" xr:uid="{D1A15E28-CC51-4DA3-953D-461837E9532B}">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H70" authorId="0" shapeId="0" xr:uid="{581EC690-5049-45AB-A8C9-2DE9D49D0050}">
+    <comment ref="H75" authorId="0" shapeId="0" xr:uid="{581EC690-5049-45AB-A8C9-2DE9D49D0050}">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1794,10 +1629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二段跳时，落下一颗爆弹，在一段时间之后或者触碰到敌人之后爆炸。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲刺之后的一秒内，所有造成的伤害翻倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,10 +1649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切换地图时，生命值变为固定值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲刺的距离提高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1893,14 +1720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当你受到伤害时，对周围近距离的所有敌人造成伤害 ，并且击退。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱技能时，生成一个保护壳，防止受到伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果你的精神值为满时，会消耗部分精神值，生成一个自爆苍蝇，撞击附近的敌人造成伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1913,26 +1732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每一层开始时，获得护盾，抵挡伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层开始时，获得大量护盾，抵挡伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的最大生命值变为1点，但是获得相对应失去生命值一定倍率的护盾，并且该护盾会在每一层开始时恢复。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现一个环绕物，会反射敌人的弹幕，如果击中敌人则会对齐造成一定的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你咏唱法术时，你可以较慢的速度进行移动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的冲刺过程中无敌，并且会对途径的敌人造成伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1941,22 +1740,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身不在受到精神伤害的影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用主动技能时，有概率触发两次效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲刺的冷却时间降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动时，留下一滩水迹，敌人经过水迹时，移动速度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法力风暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2072,7 +1859,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免疫烧伤，流血，腐蚀。</t>
+    <t>PassiveShuriken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手里剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveGodWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神备-翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断绝梦想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveDreamBeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔契约：生命交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveDarkTransaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹顶之息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹顶之风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹顶之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔契约：死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSoraBreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSoraWind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSoraLight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹顶之阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSoraSun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveStrongAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveDarkDeath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹顶之疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSoraSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveBlessSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveBlessSolid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家游侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家魔工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalRanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalMagicrafter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalSummoner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalPriest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalAssassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveDesperatePriest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅卵石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveCobblestone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveFinalDecision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveConfess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveGuard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveRoyalHunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家猎人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,9 +2126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2416,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K196"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2428,9 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="45.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2859,16 +2859,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -2882,10 +2882,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -2907,6 +2907,12 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2924,6 +2930,12 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>100</v>
@@ -2944,37 +2956,49 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
         <v>10</v>
@@ -2984,11 +3008,17 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>38</v>
@@ -2997,33 +3027,42 @@
         <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3034,137 +3073,188 @@
         <v>38</v>
       </c>
       <c r="G26" s="1">
-        <v>50</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="1">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1">
-        <v>100</v>
-      </c>
-      <c r="H29" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>81</v>
@@ -3173,723 +3263,648 @@
         <v>38</v>
       </c>
       <c r="G34" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G43" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G44" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H45" s="1">
+        <v>200</v>
+      </c>
+      <c r="I45" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H47" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="1">
-        <v>30</v>
-      </c>
-      <c r="H48" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="1">
-        <v>100</v>
-      </c>
-      <c r="H49" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" s="1">
-        <v>60</v>
-      </c>
-      <c r="H57" s="1">
-        <v>200</v>
-      </c>
-      <c r="I57" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="1">
-        <v>80</v>
-      </c>
-      <c r="H58" s="1">
-        <v>5</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="1">
-        <v>45</v>
-      </c>
-      <c r="H59" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="1">
-        <v>10</v>
-      </c>
-      <c r="H65" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" s="1">
-        <v>35</v>
-      </c>
-      <c r="H68" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="1">
-        <v>5</v>
-      </c>
-      <c r="H69" s="1">
-        <v>20</v>
-      </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="1">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="1">
+        <v>35</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -4394,106 +4409,6 @@
     <row r="176" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Setting/ItemData.xlsx
+++ b/Setting/ItemData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63569\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectMercury\Setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B37D2E-BA6B-4E8F-9AB1-F077964174FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B136DDC-1C8B-4038-AAC4-2C5B1D28286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,7 +1043,100 @@
         </r>
       </text>
     </comment>
-    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{F7858E4D-73B7-4CFB-9AE0-CED8829F2F5F}">
+    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{F299223A-5104-4F5A-8486-AE2C5162B305}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">生命提升
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{5C23F2DC-C540-4C3F-B30F-90ADDD510639}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害下降
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{58546F3C-E4EF-4B53-A745-83629B9374A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无敌时间增加</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{E39E777D-8576-4AD1-B882-3063261C742C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{BBE212F8-74D6-4B73-94A0-4A04CA06B5E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{45724A4B-A8DE-47FD-AA6D-7AC97E1F6009}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{F7858E4D-73B7-4CFB-9AE0-CED8829F2F5F}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{F86D64C5-DE93-4407-84BC-A63BE9C82111}">
+    <comment ref="H51" authorId="0" shapeId="0" xr:uid="{F86D64C5-DE93-4407-84BC-A63BE9C82111}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{39957E42-A982-493A-9EE8-24826C31E1BF}">
+    <comment ref="I51" authorId="0" shapeId="0" xr:uid="{39957E42-A982-493A-9EE8-24826C31E1BF}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{184702AD-7FC0-4C65-9E4A-406C7B71D3B4}">
+    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{184702AD-7FC0-4C65-9E4A-406C7B71D3B4}">
       <text>
         <r>
           <rPr>
@@ -1103,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{50ED73F5-B3FE-440A-A2FE-1957238716C6}">
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{50ED73F5-B3FE-440A-A2FE-1957238716C6}">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{BDAB2A6D-2043-4AF2-91D3-E292AB04377D}">
+    <comment ref="I52" authorId="0" shapeId="0" xr:uid="{BDAB2A6D-2043-4AF2-91D3-E292AB04377D}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{90191C48-4269-4579-B3D7-264CDF943126}">
+    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{90191C48-4269-4579-B3D7-264CDF943126}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{F98B9709-CEE5-4BE9-8356-6BE21BBBDF65}">
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{F98B9709-CEE5-4BE9-8356-6BE21BBBDF65}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{AC86ABD8-B756-4920-8907-CAD6E5879127}">
+    <comment ref="G55" authorId="0" shapeId="0" xr:uid="{AC86ABD8-B756-4920-8907-CAD6E5879127}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{40E7DA20-E1D2-4F45-9F24-134FDFBE6A13}">
+    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{40E7DA20-E1D2-4F45-9F24-134FDFBE6A13}">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{F312F9D6-A0C5-4F6F-9A46-BB3B5789E431}">
+    <comment ref="G57" authorId="0" shapeId="0" xr:uid="{F312F9D6-A0C5-4F6F-9A46-BB3B5789E431}">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{0A2C9544-6F60-422F-8B0D-D1BB6A1507B3}">
+    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{0A2C9544-6F60-422F-8B0D-D1BB6A1507B3}">
       <text>
         <r>
           <rPr>
@@ -1223,7 +1316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{647F5CFF-DEE1-451D-AA72-84E136F90161}">
+    <comment ref="G59" authorId="0" shapeId="0" xr:uid="{647F5CFF-DEE1-451D-AA72-84E136F90161}">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="193">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2068,6 +2161,78 @@
   </si>
   <si>
     <t>皇家猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveShadowStuffing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveHealthStuffing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveShieldStuffing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害降低5点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺无敌的时间提高30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveStrongWonton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveShadowWonton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveAirWonton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强壮馄饨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子馄饨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺路过的敌人会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果发生拼刀，则对其额外造成一次伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2416,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:G72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3217,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3243,7 +3408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3266,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3289,7 +3454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3309,7 +3474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3335,7 +3500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3358,7 +3523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3381,7 +3546,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3407,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3433,7 +3598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3459,7 +3624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3482,7 +3647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3505,276 +3670,384 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G45" s="1">
-        <v>60</v>
-      </c>
-      <c r="H45" s="1">
-        <v>200</v>
-      </c>
-      <c r="I45" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="1">
-        <v>80</v>
-      </c>
-      <c r="H46" s="1">
         <v>5</v>
       </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="1">
-        <v>45</v>
-      </c>
-      <c r="H47" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G50" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H51" s="1">
+        <v>200</v>
+      </c>
+      <c r="I51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="H53" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>

--- a/Setting/ItemData.xlsx
+++ b/Setting/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectMercury\Setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B136DDC-1C8B-4038-AAC4-2C5B1D28286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B324E-B9A2-4556-9C9A-85FEBF91923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
